--- a/Result/checksun/運動休閒.xlsx
+++ b/Result/checksun/運動休閒.xlsx
@@ -24445,7 +24445,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV123" t="inlineStr"/>
+      <c r="AV123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -24635,7 +24639,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV124" t="inlineStr"/>
+      <c r="AV124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -24825,7 +24833,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV125" t="inlineStr"/>
+      <c r="AV125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -25015,7 +25027,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV126" t="inlineStr"/>
+      <c r="AV126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -25205,7 +25221,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV127" t="inlineStr"/>
+      <c r="AV127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -25395,7 +25415,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV128" t="inlineStr"/>
+      <c r="AV128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -25585,7 +25609,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV129" t="inlineStr"/>
+      <c r="AV129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -25775,7 +25803,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV130" t="inlineStr"/>
+      <c r="AV130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -25965,7 +25997,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV131" t="inlineStr"/>
+      <c r="AV131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -26155,7 +26191,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV132" t="inlineStr"/>
+      <c r="AV132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -26345,7 +26385,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV133" t="inlineStr"/>
+      <c r="AV133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28755,7 +28799,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV145" t="inlineStr"/>
+      <c r="AV145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -28943,7 +28991,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV146" t="inlineStr"/>
+      <c r="AV146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -29131,7 +29183,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV147" t="inlineStr"/>
+      <c r="AV147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -29319,7 +29375,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV148" t="inlineStr"/>
+      <c r="AV148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -29507,7 +29567,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV149" t="inlineStr"/>
+      <c r="AV149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -29695,7 +29759,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV150" t="inlineStr"/>
+      <c r="AV150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -29883,7 +29951,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV151" t="inlineStr"/>
+      <c r="AV151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -30071,7 +30143,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV152" t="inlineStr"/>
+      <c r="AV152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -30259,7 +30335,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV153" t="inlineStr"/>
+      <c r="AV153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -30447,7 +30527,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV154" t="inlineStr"/>
+      <c r="AV154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -30635,7 +30719,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV155" t="inlineStr"/>
+      <c r="AV155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -30831,7 +30919,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV156" t="inlineStr"/>
+      <c r="AV156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -31027,7 +31119,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV157" t="inlineStr"/>
+      <c r="AV157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -31223,7 +31319,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV158" t="inlineStr"/>
+      <c r="AV158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -31419,7 +31519,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV159" t="inlineStr"/>
+      <c r="AV159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -31615,7 +31719,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV160" t="inlineStr"/>
+      <c r="AV160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -31803,7 +31911,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV161" t="inlineStr"/>
+      <c r="AV161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -31991,7 +32103,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV162" t="inlineStr"/>
+      <c r="AV162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -32179,7 +32295,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV163" t="inlineStr"/>
+      <c r="AV163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -32367,7 +32487,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="AV164" t="inlineStr"/>
+      <c r="AV164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -32555,7 +32679,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV165" t="inlineStr"/>
+      <c r="AV165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -32743,7 +32871,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV166" t="inlineStr"/>
+      <c r="AV166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35045,7 +35177,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV178" t="inlineStr"/>
+      <c r="AV178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -35235,7 +35371,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV179" t="inlineStr"/>
+      <c r="AV179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -35425,7 +35565,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV180" t="inlineStr"/>
+      <c r="AV180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -35615,7 +35759,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV181" t="inlineStr"/>
+      <c r="AV181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -35805,7 +35953,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV182" t="inlineStr"/>
+      <c r="AV182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -35995,7 +36147,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV183" t="inlineStr"/>
+      <c r="AV183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -36185,7 +36341,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV184" t="inlineStr"/>
+      <c r="AV184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -36375,7 +36535,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV185" t="inlineStr"/>
+      <c r="AV185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -36565,7 +36729,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV186" t="inlineStr"/>
+      <c r="AV186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -36755,7 +36923,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV187" t="inlineStr"/>
+      <c r="AV187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -36945,7 +37117,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV188" t="inlineStr"/>
+      <c r="AV188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -43537,7 +43713,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV222" t="inlineStr"/>
+      <c r="AV222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -43727,7 +43907,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV223" t="inlineStr"/>
+      <c r="AV223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -43917,7 +44101,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV224" t="inlineStr"/>
+      <c r="AV224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -44107,7 +44295,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV225" t="inlineStr"/>
+      <c r="AV225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -44297,7 +44489,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV226" t="inlineStr"/>
+      <c r="AV226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -44487,7 +44683,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV227" t="inlineStr"/>
+      <c r="AV227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -44677,7 +44877,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV228" t="inlineStr"/>
+      <c r="AV228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -44867,7 +45071,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV229" t="inlineStr"/>
+      <c r="AV229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -45057,7 +45265,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV230" t="inlineStr"/>
+      <c r="AV230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -45247,7 +45459,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV231" t="inlineStr"/>
+      <c r="AV231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -45445,7 +45661,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV232" t="inlineStr"/>
+      <c r="AV232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">

--- a/Result/checksun/運動休閒.xlsx
+++ b/Result/checksun/運動休閒.xlsx
@@ -723,22 +723,22 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -753,15 +753,23 @@
       <c r="X2" t="b">
         <v>0</v>
       </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-1146</v>
+        <v>-657</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -904,22 +912,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -934,15 +942,23 @@
       <c r="X3" t="b">
         <v>0</v>
       </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-247</v>
+        <v>-380</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1085,22 +1101,22 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -1115,15 +1131,23 @@
       <c r="X4" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>966</v>
+        <v>-48</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1266,22 +1290,22 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -1304,7 +1328,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>1263</v>
+        <v>-251</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1447,22 +1471,22 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U6" t="n">
@@ -1485,7 +1509,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>-877</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1628,22 +1652,22 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="U7" t="n">
@@ -1666,7 +1690,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-377</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1809,22 +1833,22 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U8" t="n">
@@ -1837,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1847,7 +1871,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-774</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1990,22 +2014,22 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U9" t="n">
@@ -2018,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -2028,7 +2052,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-147</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2171,22 +2195,22 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U10" t="n">
@@ -2199,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -2209,7 +2233,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>-637</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2347,22 +2371,22 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2390,7 +2414,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-740</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2528,27 +2552,27 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U12" t="n">
@@ -2571,7 +2595,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-1138</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2709,27 +2733,27 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -2941,7 +2965,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>470504430</v>
+        <v>247519977</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3122,7 +3146,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>274088589</v>
+        <v>232837740</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3303,7 +3327,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>293256864</v>
+        <v>193210028</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3484,7 +3508,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-6805618</v>
+        <v>279180368</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3665,7 +3689,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-143947200</v>
+        <v>177441570</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3846,7 +3870,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-458811229</v>
+        <v>85363473</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4027,7 +4051,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-216178835</v>
+        <v>99390890</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4208,7 +4232,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>102696351</v>
+        <v>272354689</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4389,7 +4413,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>358764393</v>
+        <v>206682191</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4570,7 +4594,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>502164821</v>
+        <v>323098154</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4751,7 +4775,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>218692419</v>
+        <v>478075127</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4932,7 +4956,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>185410309</v>
+        <v>558154679</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5113,7 +5137,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>-360962173</v>
+        <v>-413116529</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5292,7 +5316,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>-121609799</v>
+        <v>-102921355</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5471,7 +5495,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>247358530</v>
+        <v>288923522</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5650,7 +5674,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>36274133</v>
+        <v>392409184</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5829,7 +5853,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-133308056</v>
+        <v>208350606</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6008,7 +6032,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-311571772</v>
+        <v>238343753</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6187,7 +6211,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-88428489</v>
+        <v>314439126</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6366,7 +6390,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>151996500</v>
+        <v>304912870</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6545,7 +6569,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>353136764</v>
+        <v>308247642</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6724,7 +6748,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>444563540</v>
+        <v>86049026</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -6903,7 +6927,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>189662162</v>
+        <v>210174885</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7082,7 +7106,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>196778761</v>
+        <v>352835611</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7269,7 +7293,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>229322131</v>
+        <v>839196803</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7458,7 +7482,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>232900133</v>
+        <v>818192778</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7647,7 +7671,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>516820346</v>
+        <v>784793503</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7836,7 +7860,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>533864620</v>
+        <v>474294247</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8025,7 +8049,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>259025089</v>
+        <v>435765809</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8214,7 +8238,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>148554817</v>
+        <v>329170923</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8395,7 +8419,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>76010052</v>
+        <v>-27235382</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8576,7 +8600,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>326267556</v>
+        <v>66320846</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8757,7 +8781,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>119418340</v>
+        <v>65199966</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -8938,7 +8962,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>-135580425</v>
+        <v>-197850619</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9119,7 +9143,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>-149526836</v>
+        <v>-198747221</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9300,7 +9324,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>61197766</v>
+        <v>78830779</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9489,7 +9513,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>104737672</v>
+        <v>674545021</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9678,7 +9702,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>512970985</v>
+        <v>1101563669</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9867,7 +9891,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>666597180</v>
+        <v>1309141270</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10056,7 +10080,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>738280084</v>
+        <v>908922678</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10245,7 +10269,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>219796560</v>
+        <v>961415633</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10434,7 +10458,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>-305268508</v>
+        <v>899092990</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10623,7 +10647,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>-168472735</v>
+        <v>413632062</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10812,7 +10836,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>368796124</v>
+        <v>530394226</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11001,7 +11025,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>947812598</v>
+        <v>930688838</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11182,7 +11206,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>339115329</v>
+        <v>243713139</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11363,7 +11387,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>372822949</v>
+        <v>533826465</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11544,7 +11568,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>256548900</v>
+        <v>592038529</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11725,7 +11749,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>224902149</v>
+        <v>2289195</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -11906,7 +11930,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>81644931</v>
+        <v>-356700903</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12087,7 +12111,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>-6012542</v>
+        <v>-350974409</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12268,7 +12292,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>-13499609</v>
+        <v>12253250</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12449,7 +12473,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>-431454993</v>
+        <v>58976042</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12630,7 +12654,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>-619821981</v>
+        <v>117325074</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12811,7 +12835,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>-209113345</v>
+        <v>186032756</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -12992,7 +13016,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>-6890841</v>
+        <v>591234179</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13173,7 +13197,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>274860114</v>
+        <v>592284527</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13354,7 +13378,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>234866204</v>
+        <v>175969940</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13535,7 +13559,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>497321876</v>
+        <v>511120034</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13716,7 +13740,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>462286941</v>
+        <v>666664284</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -13905,7 +13929,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>104288</v>
+        <v>115207</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14094,7 +14118,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>168299</v>
+        <v>142456</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14283,7 +14307,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>-23453</v>
+        <v>-19674</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14472,7 +14496,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>7170</v>
+        <v>15337</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14661,7 +14685,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>-44629</v>
+        <v>18759</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14850,7 +14874,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>-9132</v>
+        <v>25122</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15039,7 +15063,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>3749</v>
+        <v>2788</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15228,7 +15252,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>18786</v>
+        <v>45009</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15417,7 +15441,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>12911</v>
+        <v>16979</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15598,7 +15622,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>4418</v>
+        <v>-16010</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15779,7 +15803,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>44602</v>
+        <v>22375</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -15960,7 +15984,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>21343</v>
+        <v>37029</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16149,7 +16173,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>-171</v>
+        <v>-1867</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16336,7 +16360,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>-158</v>
+        <v>-188</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16523,7 +16547,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>-1266</v>
+        <v>-266</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16710,7 +16734,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>-1235</v>
+        <v>-1172</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -16897,7 +16921,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>-445</v>
+        <v>865</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -17076,7 +17100,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>-814</v>
+        <v>-234</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17255,7 +17279,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>-461</v>
+        <v>-1516</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17434,7 +17458,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>415</v>
+        <v>-528</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17613,7 +17637,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>1814</v>
+        <v>-209</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17792,7 +17816,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>524</v>
+        <v>45</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -17971,7 +17995,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>895</v>
+        <v>620</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18150,7 +18174,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>-1234</v>
+        <v>1912</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18337,7 +18361,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>4484</v>
+        <v>7855</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18526,7 +18550,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>11887</v>
+        <v>9538</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18715,7 +18739,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>7233</v>
+        <v>4298</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -18896,7 +18920,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>5121</v>
+        <v>2282</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -19077,7 +19101,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>-2342</v>
+        <v>-3671</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19258,7 +19282,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>-3560</v>
+        <v>-3469</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19439,7 +19463,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>-1750</v>
+        <v>-3006</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19620,7 +19644,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>-7</v>
+        <v>-3020</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19801,7 +19825,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>625</v>
+        <v>-702</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -19982,7 +20006,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>-1089</v>
+        <v>-2451</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20163,7 +20187,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>-1322</v>
+        <v>-2172</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20344,7 +20368,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>-534</v>
+        <v>1334</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20525,7 +20549,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>-7815</v>
+        <v>8156</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20706,7 +20730,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>-2625</v>
+        <v>-3796</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -20887,7 +20911,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>-3485</v>
+        <v>18202</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -21068,7 +21092,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>-2761</v>
+        <v>8355</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21249,7 +21273,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>-9392</v>
+        <v>19451</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21430,7 +21454,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>-3342</v>
+        <v>13801</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21611,7 +21635,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>18732</v>
+        <v>9051</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -21792,7 +21816,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>8221</v>
+        <v>11960</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -21973,7 +21997,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>25029</v>
+        <v>4484</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22154,7 +22178,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>-7616</v>
+        <v>-22514</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22335,7 +22359,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>20622</v>
+        <v>-1547</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22516,7 +22540,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>-7886</v>
+        <v>-15575</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -22705,7 +22729,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>-2135554</v>
+        <v>25082815</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -22894,7 +22918,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>76965341</v>
+        <v>78547648</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -23083,7 +23107,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>16218338</v>
+        <v>60289432</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23264,7 +23288,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>47143152</v>
+        <v>20733559</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23445,7 +23469,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>-28179786</v>
+        <v>27122289</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23626,7 +23650,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>-31091944</v>
+        <v>16725490</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -23807,7 +23831,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>-19924783</v>
+        <v>-14879122</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -23988,7 +24012,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>29762093</v>
+        <v>-3131678</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24169,7 +24193,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>75163038</v>
+        <v>-10555249</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24350,7 +24374,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>-6484810</v>
+        <v>-69406832</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24531,7 +24555,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>25539982</v>
+        <v>-28269452</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -24712,7 +24736,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>-27345604</v>
+        <v>-106438202</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -24901,7 +24925,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>-10399314</v>
+        <v>58498394</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -25090,7 +25114,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>-27931426</v>
+        <v>-10689185</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -25279,7 +25303,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>-136759736</v>
+        <v>6640650</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -25468,7 +25492,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>17275013</v>
+        <v>29313752</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -25657,7 +25681,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>48469604</v>
+        <v>57364155</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -25846,7 +25870,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>94827011</v>
+        <v>121226901</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -26035,7 +26059,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>51622695</v>
+        <v>-5329506</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -26224,7 +26248,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>-31227363</v>
+        <v>-106662523</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -26413,7 +26437,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>48573375</v>
+        <v>-121653855</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -26594,7 +26618,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>-39583956</v>
+        <v>-266149082</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -26775,7 +26799,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>40121914</v>
+        <v>-185363297</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -26956,7 +26980,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>-22173485</v>
+        <v>-350532642</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -27137,7 +27161,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>-46624030</v>
+        <v>-67907951</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -27326,7 +27350,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>-29190230</v>
+        <v>-67932291</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -27515,7 +27539,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>-10665932</v>
+        <v>-21331983</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -27704,7 +27728,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>-23129878</v>
+        <v>-608079</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -27893,7 +27917,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>-54337903</v>
+        <v>490855</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -28082,7 +28106,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>-10251604</v>
+        <v>18064588</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -28271,7 +28295,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>1845957</v>
+        <v>25617738</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -28460,7 +28484,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>15595842</v>
+        <v>38202712</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -28641,7 +28665,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>-414447</v>
+        <v>65767708</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -28822,7 +28846,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>20675842</v>
+        <v>90618109</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -29003,7 +29027,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>39232916</v>
+        <v>110843484</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -29184,7 +29208,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>28730639</v>
+        <v>62266801</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -29363,7 +29387,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>15132186</v>
+        <v>48133945</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -29542,7 +29566,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>-23859466</v>
+        <v>46736682</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -29721,7 +29745,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>22900537</v>
+        <v>141939545</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -29900,7 +29924,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>75969163</v>
+        <v>155579629</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -30079,7 +30103,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>-52566872</v>
+        <v>163924017</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -30258,7 +30282,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>-132079274</v>
+        <v>114930777</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -30437,7 +30461,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>-42967404</v>
+        <v>60729799</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -30616,7 +30640,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>123163020</v>
+        <v>130600094</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -30795,7 +30819,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>251118282</v>
+        <v>162392136</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -30974,7 +30998,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>122577870</v>
+        <v>-4695362</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -31153,7 +31177,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>93327869</v>
+        <v>21712978</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -31332,7 +31356,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>-4108231</v>
+        <v>41743758</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -31511,7 +31535,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>963843376</v>
+        <v>-457993984</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -31690,7 +31714,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>608531758</v>
+        <v>-2375209781</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -31869,7 +31893,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>-929238595</v>
+        <v>-2558025150</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -32048,7 +32072,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>-792829776</v>
+        <v>-1115243227</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -32227,7 +32251,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>-1983776933</v>
+        <v>-1268088288</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -32406,7 +32430,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>-1891697572</v>
+        <v>-809792110</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -32585,7 +32609,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>-629007584</v>
+        <v>437387251</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -32764,7 +32788,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>-999964606</v>
+        <v>1509891190</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -32943,7 +32967,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>262911017</v>
+        <v>2648469074</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -33122,7 +33146,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>306594133</v>
+        <v>2806292472</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -33301,7 +33325,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>1715653251</v>
+        <v>4183282689</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -33480,7 +33504,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>818994445</v>
+        <v>2658053401</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -33669,7 +33693,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>-694</v>
+        <v>-892</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -33856,7 +33880,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>-603</v>
+        <v>-253</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -34043,7 +34067,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>-345</v>
+        <v>249</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -34189,7 +34213,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -34222,7 +34246,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>-528</v>
+        <v>368</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -34401,7 +34425,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>427</v>
+        <v>943</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -34557,7 +34581,7 @@
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="U187" t="n">
@@ -34580,7 +34604,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>339</v>
+        <v>835</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -34759,7 +34783,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>330</v>
+        <v>1194</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -34915,7 +34939,7 @@
       </c>
       <c r="T189" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="U189" t="n">
@@ -34938,7 +34962,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>-77</v>
+        <v>563</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -35117,7 +35141,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>255</v>
+        <v>840</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -35296,7 +35320,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>566</v>
+        <v>808</v>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
@@ -35452,7 +35476,7 @@
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="U192" t="n">
@@ -35475,7 +35499,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>593</v>
+        <v>676</v>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
@@ -35654,7 +35678,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>241</v>
+        <v>833</v>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
@@ -35841,7 +35865,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>405464452</v>
+        <v>793061522</v>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
@@ -36030,7 +36054,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>198288030</v>
+        <v>136132765</v>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
@@ -36219,7 +36243,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>262743530</v>
+        <v>208917553</v>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
@@ -36408,7 +36432,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>634205074</v>
+        <v>482691521</v>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
@@ -36597,7 +36621,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>204458283</v>
+        <v>498384666</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
@@ -36786,7 +36810,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>-192998933</v>
+        <v>203169302</v>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
@@ -36975,7 +36999,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>-246608004</v>
+        <v>-161977018</v>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
@@ -37164,7 +37188,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>-266613548</v>
+        <v>155321995</v>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
@@ -37353,7 +37377,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>139172956</v>
+        <v>284871813</v>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
@@ -37534,7 +37558,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>95094451</v>
+        <v>-47470442</v>
       </c>
       <c r="AC203" t="inlineStr">
         <is>
@@ -37715,7 +37739,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>560539931</v>
+        <v>402934774</v>
       </c>
       <c r="AC204" t="inlineStr">
         <is>
@@ -37896,7 +37920,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>256995279</v>
+        <v>4043794</v>
       </c>
       <c r="AC205" t="inlineStr">
         <is>
@@ -38044,17 +38068,17 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="U206" t="n">
@@ -38085,7 +38109,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>-159833486</v>
+        <v>480558000</v>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
@@ -38233,17 +38257,17 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="T207" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="U207" t="n">
@@ -38274,7 +38298,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>281011427</v>
+        <v>930979755</v>
       </c>
       <c r="AC207" t="inlineStr">
         <is>
@@ -38422,17 +38446,17 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>28.98</t>
+          <t>118.55</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="T208" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U208" t="n">
@@ -38463,7 +38487,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>242506657</v>
+        <v>1107527320</v>
       </c>
       <c r="AC208" t="inlineStr">
         <is>
@@ -38611,17 +38635,17 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="T209" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="U209" t="n">
@@ -38652,7 +38676,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>262656893</v>
+        <v>1069717945</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
@@ -38800,17 +38824,17 @@
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="T210" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="U210" t="n">
@@ -38841,7 +38865,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>-322247835</v>
+        <v>1032486937</v>
       </c>
       <c r="AC210" t="inlineStr">
         <is>
@@ -38989,17 +39013,17 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="T211" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>-2.25</t>
         </is>
       </c>
       <c r="U211" t="n">
@@ -39030,7 +39054,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>-306125842</v>
+        <v>609507750</v>
       </c>
       <c r="AC211" t="inlineStr">
         <is>
@@ -39178,17 +39202,17 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="T212" t="inlineStr">
         <is>
-          <t>-3.23</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="U212" t="n">
@@ -39219,7 +39243,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>377734593</v>
+        <v>563451206</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
@@ -39367,17 +39391,17 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="T213" t="inlineStr">
         <is>
-          <t>-4.32</t>
+          <t>-4.23</t>
         </is>
       </c>
       <c r="U213" t="n">
@@ -39408,7 +39432,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>972216163</v>
+        <v>1146479470</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -39556,17 +39580,17 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="T214" t="inlineStr">
         <is>
-          <t>-5.52</t>
+          <t>-5.42</t>
         </is>
       </c>
       <c r="U214" t="n">
@@ -39597,7 +39621,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>1171146505</v>
+        <v>816366492</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -39750,12 +39774,12 @@
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>-4.03</t>
+          <t>-3.95</t>
         </is>
       </c>
       <c r="T215" t="inlineStr">
         <is>
-          <t>-6.51</t>
+          <t>-6.42</t>
         </is>
       </c>
       <c r="U215" t="n">
@@ -39786,7 +39810,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>429326459</v>
+        <v>728103354</v>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
@@ -39939,12 +39963,12 @@
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>-5.38</t>
+          <t>-5.29</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
         <is>
-          <t>-7.13</t>
+          <t>-7.03</t>
         </is>
       </c>
       <c r="U216" t="n">
@@ -39967,7 +39991,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>382518609</v>
+        <v>649586181</v>
       </c>
       <c r="AC216" t="inlineStr">
         <is>
@@ -40120,12 +40144,12 @@
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>-6.51</t>
+          <t>-6.42</t>
         </is>
       </c>
       <c r="T217" t="inlineStr">
         <is>
-          <t>-7.57</t>
+          <t>-7.47</t>
         </is>
       </c>
       <c r="U217" t="n">
@@ -40148,7 +40172,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>-255512913</v>
+        <v>-83663898</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
@@ -40337,7 +40361,7 @@
         </is>
       </c>
       <c r="AB218" t="n">
-        <v>-36804149</v>
+        <v>-2992915</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -40526,7 +40550,7 @@
         </is>
       </c>
       <c r="AB219" t="n">
-        <v>69480763</v>
+        <v>77667146</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -40715,7 +40739,7 @@
         </is>
       </c>
       <c r="AB220" t="n">
-        <v>33583070</v>
+        <v>50707894</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -40904,7 +40928,7 @@
         </is>
       </c>
       <c r="AB221" t="n">
-        <v>29209147</v>
+        <v>48967426</v>
       </c>
       <c r="AC221" t="inlineStr">
         <is>
@@ -41093,7 +41117,7 @@
         </is>
       </c>
       <c r="AB222" t="n">
-        <v>-3920918</v>
+        <v>47594057</v>
       </c>
       <c r="AC222" t="inlineStr">
         <is>
@@ -41282,7 +41306,7 @@
         </is>
       </c>
       <c r="AB223" t="n">
-        <v>-2628067</v>
+        <v>33388316</v>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
@@ -41471,7 +41495,7 @@
         </is>
       </c>
       <c r="AB224" t="n">
-        <v>4602087</v>
+        <v>13786061</v>
       </c>
       <c r="AC224" t="inlineStr">
         <is>
@@ -41660,7 +41684,7 @@
         </is>
       </c>
       <c r="AB225" t="n">
-        <v>12107301</v>
+        <v>37535472</v>
       </c>
       <c r="AC225" t="inlineStr">
         <is>
@@ -41841,7 +41865,7 @@
         </is>
       </c>
       <c r="AB226" t="n">
-        <v>19752891</v>
+        <v>15055157</v>
       </c>
       <c r="AC226" t="inlineStr">
         <is>
@@ -42022,7 +42046,7 @@
         </is>
       </c>
       <c r="AB227" t="n">
-        <v>15156192</v>
+        <v>-17148696</v>
       </c>
       <c r="AC227" t="inlineStr">
         <is>
@@ -42203,7 +42227,7 @@
         </is>
       </c>
       <c r="AB228" t="n">
-        <v>39407674</v>
+        <v>7964628</v>
       </c>
       <c r="AC228" t="inlineStr">
         <is>
@@ -42384,7 +42408,7 @@
         </is>
       </c>
       <c r="AB229" t="n">
-        <v>16263492</v>
+        <v>29292981</v>
       </c>
       <c r="AC229" t="inlineStr">
         <is>
@@ -42573,7 +42597,7 @@
         </is>
       </c>
       <c r="AB230" t="n">
-        <v>247821339</v>
+        <v>278844638</v>
       </c>
       <c r="AC230" t="inlineStr">
         <is>
@@ -42762,7 +42786,7 @@
         </is>
       </c>
       <c r="AB231" t="n">
-        <v>375756832</v>
+        <v>375268839</v>
       </c>
       <c r="AC231" t="inlineStr">
         <is>
@@ -42951,7 +42975,7 @@
         </is>
       </c>
       <c r="AB232" t="n">
-        <v>175163767</v>
+        <v>269317814</v>
       </c>
       <c r="AC232" t="inlineStr">
         <is>
@@ -43132,7 +43156,7 @@
         </is>
       </c>
       <c r="AB233" t="n">
-        <v>40377126</v>
+        <v>113894458</v>
       </c>
       <c r="AC233" t="inlineStr">
         <is>
@@ -43313,7 +43337,7 @@
         </is>
       </c>
       <c r="AB234" t="n">
-        <v>-85967199</v>
+        <v>78313135</v>
       </c>
       <c r="AC234" t="inlineStr">
         <is>
@@ -43494,7 +43518,7 @@
         </is>
       </c>
       <c r="AB235" t="n">
-        <v>5396302</v>
+        <v>116489632</v>
       </c>
       <c r="AC235" t="inlineStr">
         <is>
@@ -43675,7 +43699,7 @@
         </is>
       </c>
       <c r="AB236" t="n">
-        <v>-9353827</v>
+        <v>34485098</v>
       </c>
       <c r="AC236" t="inlineStr">
         <is>
@@ -43856,7 +43880,7 @@
         </is>
       </c>
       <c r="AB237" t="n">
-        <v>85479206</v>
+        <v>135200762</v>
       </c>
       <c r="AC237" t="inlineStr">
         <is>
@@ -44037,7 +44061,7 @@
         </is>
       </c>
       <c r="AB238" t="n">
-        <v>88757745</v>
+        <v>141459089</v>
       </c>
       <c r="AC238" t="inlineStr">
         <is>
@@ -44218,7 +44242,7 @@
         </is>
       </c>
       <c r="AB239" t="n">
-        <v>82871159</v>
+        <v>57626001</v>
       </c>
       <c r="AC239" t="inlineStr">
         <is>
@@ -44399,7 +44423,7 @@
         </is>
       </c>
       <c r="AB240" t="n">
-        <v>78801128</v>
+        <v>93731428</v>
       </c>
       <c r="AC240" t="inlineStr">
         <is>
@@ -44580,7 +44604,7 @@
         </is>
       </c>
       <c r="AB241" t="n">
-        <v>22335585</v>
+        <v>189651727</v>
       </c>
       <c r="AC241" t="inlineStr">
         <is>
@@ -44769,7 +44793,7 @@
         </is>
       </c>
       <c r="AB242" t="n">
-        <v>12297414</v>
+        <v>5788818</v>
       </c>
       <c r="AC242" t="inlineStr">
         <is>
@@ -44958,7 +44982,7 @@
         </is>
       </c>
       <c r="AB243" t="n">
-        <v>13659969</v>
+        <v>16085472</v>
       </c>
       <c r="AC243" t="inlineStr">
         <is>
@@ -45139,7 +45163,7 @@
         </is>
       </c>
       <c r="AB244" t="n">
-        <v>11756569</v>
+        <v>15708900</v>
       </c>
       <c r="AC244" t="inlineStr">
         <is>
@@ -45320,7 +45344,7 @@
         </is>
       </c>
       <c r="AB245" t="n">
-        <v>-2573429</v>
+        <v>5915173</v>
       </c>
       <c r="AC245" t="inlineStr">
         <is>
@@ -45501,7 +45525,7 @@
         </is>
       </c>
       <c r="AB246" t="n">
-        <v>-6582819</v>
+        <v>1105834</v>
       </c>
       <c r="AC246" t="inlineStr">
         <is>
@@ -45682,7 +45706,7 @@
         </is>
       </c>
       <c r="AB247" t="n">
-        <v>-11588675</v>
+        <v>-4867401</v>
       </c>
       <c r="AC247" t="inlineStr">
         <is>
@@ -45863,7 +45887,7 @@
         </is>
       </c>
       <c r="AB248" t="n">
-        <v>-3935167</v>
+        <v>-6348936</v>
       </c>
       <c r="AC248" t="inlineStr">
         <is>
@@ -46044,7 +46068,7 @@
         </is>
       </c>
       <c r="AB249" t="n">
-        <v>9008322</v>
+        <v>4438397</v>
       </c>
       <c r="AC249" t="inlineStr">
         <is>
@@ -46225,7 +46249,7 @@
         </is>
       </c>
       <c r="AB250" t="n">
-        <v>15541006</v>
+        <v>10830977</v>
       </c>
       <c r="AC250" t="inlineStr">
         <is>
@@ -46406,7 +46430,7 @@
         </is>
       </c>
       <c r="AB251" t="n">
-        <v>12423769</v>
+        <v>-1584706</v>
       </c>
       <c r="AC251" t="inlineStr">
         <is>
@@ -46587,7 +46611,7 @@
         </is>
       </c>
       <c r="AB252" t="n">
-        <v>-1319669</v>
+        <v>-3061257</v>
       </c>
       <c r="AC252" t="inlineStr">
         <is>
@@ -46768,7 +46792,7 @@
         </is>
       </c>
       <c r="AB253" t="n">
-        <v>-8819732</v>
+        <v>-13566175</v>
       </c>
       <c r="AC253" t="inlineStr">
         <is>
@@ -46949,7 +46973,7 @@
         </is>
       </c>
       <c r="AB254" t="n">
-        <v>33527133</v>
+        <v>-294210982</v>
       </c>
       <c r="AC254" t="inlineStr">
         <is>
@@ -47130,7 +47154,7 @@
         </is>
       </c>
       <c r="AB255" t="n">
-        <v>-75741591</v>
+        <v>-667637052</v>
       </c>
       <c r="AC255" t="inlineStr">
         <is>
@@ -47311,7 +47335,7 @@
         </is>
       </c>
       <c r="AB256" t="n">
-        <v>-214962819</v>
+        <v>-472830985</v>
       </c>
       <c r="AC256" t="inlineStr">
         <is>
@@ -47492,7 +47516,7 @@
         </is>
       </c>
       <c r="AB257" t="n">
-        <v>-75020733</v>
+        <v>-419796650</v>
       </c>
       <c r="AC257" t="inlineStr">
         <is>
@@ -47673,7 +47697,7 @@
         </is>
       </c>
       <c r="AB258" t="n">
-        <v>-346324479</v>
+        <v>-253102626</v>
       </c>
       <c r="AC258" t="inlineStr">
         <is>
@@ -47854,7 +47878,7 @@
         </is>
       </c>
       <c r="AB259" t="n">
-        <v>-177264993</v>
+        <v>-466563175</v>
       </c>
       <c r="AC259" t="inlineStr">
         <is>
@@ -48035,7 +48059,7 @@
         </is>
       </c>
       <c r="AB260" t="n">
-        <v>-252717382</v>
+        <v>-603797873</v>
       </c>
       <c r="AC260" t="inlineStr">
         <is>
@@ -48216,7 +48240,7 @@
         </is>
       </c>
       <c r="AB261" t="n">
-        <v>-245570982</v>
+        <v>-559010703</v>
       </c>
       <c r="AC261" t="inlineStr">
         <is>
@@ -48397,7 +48421,7 @@
         </is>
       </c>
       <c r="AB262" t="n">
-        <v>-80603173</v>
+        <v>-848545046</v>
       </c>
       <c r="AC262" t="inlineStr">
         <is>
@@ -48578,7 +48602,7 @@
         </is>
       </c>
       <c r="AB263" t="n">
-        <v>-92058535</v>
+        <v>-971881264</v>
       </c>
       <c r="AC263" t="inlineStr">
         <is>
@@ -48759,7 +48783,7 @@
         </is>
       </c>
       <c r="AB264" t="n">
-        <v>338792835</v>
+        <v>-521167873</v>
       </c>
       <c r="AC264" t="inlineStr">
         <is>
@@ -48940,7 +48964,7 @@
         </is>
       </c>
       <c r="AB265" t="n">
-        <v>-208695009</v>
+        <v>-1141737464</v>
       </c>
       <c r="AC265" t="inlineStr">
         <is>
@@ -49121,7 +49145,7 @@
         </is>
       </c>
       <c r="AB266" t="n">
-        <v>20959467</v>
+        <v>7983085</v>
       </c>
       <c r="AC266" t="inlineStr">
         <is>
@@ -49302,7 +49326,7 @@
         </is>
       </c>
       <c r="AB267" t="n">
-        <v>21973995</v>
+        <v>4715981</v>
       </c>
       <c r="AC267" t="inlineStr">
         <is>
@@ -49483,7 +49507,7 @@
         </is>
       </c>
       <c r="AB268" t="n">
-        <v>19370095</v>
+        <v>114591</v>
       </c>
       <c r="AC268" t="inlineStr">
         <is>
@@ -49664,7 +49688,7 @@
         </is>
       </c>
       <c r="AB269" t="n">
-        <v>8670491</v>
+        <v>-3717100</v>
       </c>
       <c r="AC269" t="inlineStr">
         <is>
@@ -49845,7 +49869,7 @@
         </is>
       </c>
       <c r="AB270" t="n">
-        <v>-13586023</v>
+        <v>-4927019</v>
       </c>
       <c r="AC270" t="inlineStr">
         <is>
@@ -50026,7 +50050,7 @@
         </is>
       </c>
       <c r="AB271" t="n">
-        <v>-31340361</v>
+        <v>-19758547</v>
       </c>
       <c r="AC271" t="inlineStr">
         <is>
@@ -50207,7 +50231,7 @@
         </is>
       </c>
       <c r="AB272" t="n">
-        <v>-21646873</v>
+        <v>-20984035</v>
       </c>
       <c r="AC272" t="inlineStr">
         <is>
@@ -50388,7 +50412,7 @@
         </is>
       </c>
       <c r="AB273" t="n">
-        <v>-3671991</v>
+        <v>-11962669</v>
       </c>
       <c r="AC273" t="inlineStr">
         <is>
@@ -50569,7 +50593,7 @@
         </is>
       </c>
       <c r="AB274" t="n">
-        <v>12084857</v>
+        <v>-10780802</v>
       </c>
       <c r="AC274" t="inlineStr">
         <is>
@@ -50750,7 +50774,7 @@
         </is>
       </c>
       <c r="AB275" t="n">
-        <v>9259282</v>
+        <v>9239157</v>
       </c>
       <c r="AC275" t="inlineStr">
         <is>
@@ -50931,7 +50955,7 @@
         </is>
       </c>
       <c r="AB276" t="n">
-        <v>12330995</v>
+        <v>24310993</v>
       </c>
       <c r="AC276" t="inlineStr">
         <is>
@@ -51112,7 +51136,7 @@
         </is>
       </c>
       <c r="AB277" t="n">
-        <v>-503043</v>
+        <v>32403049</v>
       </c>
       <c r="AC277" t="inlineStr">
         <is>
@@ -51301,7 +51325,7 @@
         </is>
       </c>
       <c r="AB278" t="n">
-        <v>1342</v>
+        <v>4862</v>
       </c>
       <c r="AC278" t="inlineStr">
         <is>
@@ -51490,7 +51514,7 @@
         </is>
       </c>
       <c r="AB279" t="n">
-        <v>1332</v>
+        <v>4861</v>
       </c>
       <c r="AC279" t="inlineStr">
         <is>
@@ -51679,7 +51703,7 @@
         </is>
       </c>
       <c r="AB280" t="n">
-        <v>2522</v>
+        <v>5984</v>
       </c>
       <c r="AC280" t="inlineStr">
         <is>
@@ -51868,7 +51892,7 @@
         </is>
       </c>
       <c r="AB281" t="n">
-        <v>5986</v>
+        <v>6690</v>
       </c>
       <c r="AC281" t="inlineStr">
         <is>
@@ -52057,7 +52081,7 @@
         </is>
       </c>
       <c r="AB282" t="n">
-        <v>4170</v>
+        <v>5199</v>
       </c>
       <c r="AC282" t="inlineStr">
         <is>
@@ -52246,7 +52270,7 @@
         </is>
       </c>
       <c r="AB283" t="n">
-        <v>410</v>
+        <v>3150</v>
       </c>
       <c r="AC283" t="inlineStr">
         <is>
@@ -52427,7 +52451,7 @@
         </is>
       </c>
       <c r="AB284" t="n">
-        <v>-2466</v>
+        <v>-1910</v>
       </c>
       <c r="AC284" t="inlineStr">
         <is>
@@ -52608,7 +52632,7 @@
         </is>
       </c>
       <c r="AB285" t="n">
-        <v>-641</v>
+        <v>-1277</v>
       </c>
       <c r="AC285" t="inlineStr">
         <is>
@@ -52789,7 +52813,7 @@
         </is>
       </c>
       <c r="AB286" t="n">
-        <v>3052</v>
+        <v>586</v>
       </c>
       <c r="AC286" t="inlineStr">
         <is>
@@ -52970,7 +52994,7 @@
         </is>
       </c>
       <c r="AB287" t="n">
-        <v>3170</v>
+        <v>-1860</v>
       </c>
       <c r="AC287" t="inlineStr">
         <is>
@@ -53151,7 +53175,7 @@
         </is>
       </c>
       <c r="AB288" t="n">
-        <v>1670</v>
+        <v>-294</v>
       </c>
       <c r="AC288" t="inlineStr">
         <is>
@@ -53332,7 +53356,7 @@
         </is>
       </c>
       <c r="AB289" t="n">
-        <v>-312</v>
+        <v>-1353</v>
       </c>
       <c r="AC289" t="inlineStr">
         <is>
@@ -53521,7 +53545,7 @@
         </is>
       </c>
       <c r="AB290" t="n">
-        <v>-984888</v>
+        <v>5981548</v>
       </c>
       <c r="AC290" t="inlineStr">
         <is>
@@ -53708,7 +53732,7 @@
         </is>
       </c>
       <c r="AB291" t="n">
-        <v>3255295</v>
+        <v>8899026</v>
       </c>
       <c r="AC291" t="inlineStr">
         <is>
@@ -53895,7 +53919,7 @@
         </is>
       </c>
       <c r="AB292" t="n">
-        <v>1162180</v>
+        <v>8051776</v>
       </c>
       <c r="AC292" t="inlineStr">
         <is>
@@ -54082,7 +54106,7 @@
         </is>
       </c>
       <c r="AB293" t="n">
-        <v>4469635</v>
+        <v>11293915</v>
       </c>
       <c r="AC293" t="inlineStr">
         <is>
@@ -54269,7 +54293,7 @@
         </is>
       </c>
       <c r="AB294" t="n">
-        <v>136487</v>
+        <v>9492328</v>
       </c>
       <c r="AC294" t="inlineStr">
         <is>
@@ -54456,7 +54480,7 @@
         </is>
       </c>
       <c r="AB295" t="n">
-        <v>1555037</v>
+        <v>7733860</v>
       </c>
       <c r="AC295" t="inlineStr">
         <is>
@@ -54643,7 +54667,7 @@
         </is>
       </c>
       <c r="AB296" t="n">
-        <v>2496801</v>
+        <v>4141215</v>
       </c>
       <c r="AC296" t="inlineStr">
         <is>
@@ -54830,7 +54854,7 @@
         </is>
       </c>
       <c r="AB297" t="n">
-        <v>5507244</v>
+        <v>4456920</v>
       </c>
       <c r="AC297" t="inlineStr">
         <is>
@@ -55017,7 +55041,7 @@
         </is>
       </c>
       <c r="AB298" t="n">
-        <v>5334559</v>
+        <v>3833820</v>
       </c>
       <c r="AC298" t="inlineStr">
         <is>
@@ -55196,7 +55220,7 @@
         </is>
       </c>
       <c r="AB299" t="n">
-        <v>4327479</v>
+        <v>-1672</v>
       </c>
       <c r="AC299" t="inlineStr">
         <is>
@@ -55375,7 +55399,7 @@
         </is>
       </c>
       <c r="AB300" t="n">
-        <v>3848597</v>
+        <v>983577</v>
       </c>
       <c r="AC300" t="inlineStr">
         <is>
@@ -55554,7 +55578,7 @@
         </is>
       </c>
       <c r="AB301" t="n">
-        <v>844264</v>
+        <v>4136882</v>
       </c>
       <c r="AC301" t="inlineStr">
         <is>

--- a/Result/checksun/運動休閒.xlsx
+++ b/Result/checksun/運動休閒.xlsx
@@ -722,20 +722,20 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>-1</v>
       </c>
       <c r="D3" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1163,13 +1163,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1598,16 +1598,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>-2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2036,20 +2036,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2474,20 +2474,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3130,17 +3130,17 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3350,16 +3350,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3569,20 +3569,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D15" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -3788,16 +3788,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4007,20 +4007,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -4226,16 +4226,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4445,20 +4445,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>-2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4667,17 +4667,17 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -4883,20 +4883,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5539,17 +5539,17 @@
         <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -5753,20 +5753,20 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -5973,17 +5973,17 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C26" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-23</v>
+        <v>-8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -6187,20 +6187,20 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D27" t="n">
-        <v>-33</v>
+        <v>-4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -6404,20 +6404,20 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D28" t="n">
-        <v>-54</v>
+        <v>-28</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -6621,20 +6621,20 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B29" t="n">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -6838,20 +6838,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="C30" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>183</v>
+        <v>-44</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7058,17 +7058,17 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -7272,20 +7272,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7919,16 +7919,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>289</v>
+        <v>143</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8150,20 +8150,20 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B36" t="n">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="C36" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>-51</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -8376,17 +8376,17 @@
         <v>4</v>
       </c>
       <c r="B37" t="n">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="C37" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8596,20 +8596,20 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B38" t="n">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D38" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -8822,13 +8822,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -9042,10 +9042,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="n">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -9265,20 +9265,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="C41" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -9488,20 +9488,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9711,20 +9711,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -10376,16 +10376,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" t="n">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="C46" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D46" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -10607,16 +10607,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B47" t="n">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10834,16 +10834,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="n">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -11061,20 +11061,20 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
         <v>1</v>
       </c>
-      <c r="D49" t="n">
-        <v>5</v>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -11283,10 +11283,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D50" t="n">
         <v>-14</v>
@@ -11499,20 +11499,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B51" t="n">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>-6</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -11718,16 +11718,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="C52" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -11940,17 +11940,17 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -12156,20 +12156,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12833,16 +12833,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B57" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C57" t="n">
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -13056,20 +13056,20 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>-1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -13279,20 +13279,20 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>4</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -13502,16 +13502,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B60" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D60" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13725,20 +13725,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B61" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D61" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -13948,16 +13948,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D62" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -14171,20 +14171,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="B63" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C63" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>41</v>
+        <v>-6</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -14394,20 +14394,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -14625,20 +14625,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -15317,10 +15317,10 @@
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
@@ -15533,16 +15533,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -15755,13 +15755,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -15974,13 +15974,13 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -16193,13 +16193,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -16412,13 +16412,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D73" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -16628,20 +16628,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16850,13 +16850,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -17066,20 +17066,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -17719,16 +17719,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -17936,16 +17936,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C80" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -18153,20 +18153,20 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B81" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -18370,16 +18370,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B82" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D82" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -18587,16 +18587,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -18804,16 +18804,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -19021,20 +19021,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C85" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19238,20 +19238,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -19455,20 +19455,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -20102,16 +20102,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -20328,13 +20328,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -20547,10 +20547,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -20763,13 +20763,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B93" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -20985,13 +20985,13 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -21204,17 +21204,17 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -21423,17 +21423,17 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -21642,13 +21642,13 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -21858,20 +21858,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22511,16 +22511,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -22733,13 +22733,13 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -22952,13 +22952,13 @@
         <v>-1</v>
       </c>
       <c r="B103" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C103" t="n">
         <v>-1</v>
       </c>
       <c r="D103" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -23171,13 +23171,13 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -23390,13 +23390,13 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D105" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -23606,16 +23606,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C106" t="n">
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -23825,20 +23825,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>32</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
         <v>-2</v>
       </c>
-      <c r="B107" t="n">
-        <v>65</v>
-      </c>
-      <c r="C107" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D107" t="n">
-        <v>65</v>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -24044,20 +24044,20 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -24263,20 +24263,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24916,20 +24916,20 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B112" t="n">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="C112" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>-39</v>
+        <v>-24</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -25139,20 +25139,20 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B113" t="n">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="C113" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>11</v>
+        <v>-78</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -25362,20 +25362,20 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B114" t="n">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="C114" t="n">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="D114" t="n">
-        <v>19</v>
+        <v>-37</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -25585,20 +25585,20 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B115" t="n">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>-9</v>
       </c>
       <c r="D115" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -25808,20 +25808,20 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" t="n">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -26031,13 +26031,13 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B117" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117" t="n">
         <v>55</v>
@@ -26254,16 +26254,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B118" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C118" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -26477,20 +26477,20 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -26700,20 +26700,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -27373,16 +27373,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -27595,17 +27595,17 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -27811,16 +27811,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B125" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C125" t="n">
         <v>-2</v>
       </c>
       <c r="D125" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -28030,13 +28030,13 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B126" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -28249,20 +28249,20 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -28468,16 +28468,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B128" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -28687,20 +28687,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B129" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -28909,17 +28909,17 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -29125,20 +29125,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -29778,20 +29778,20 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B134" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -30001,16 +30001,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -30223,13 +30223,13 @@
         <v>3</v>
       </c>
       <c r="B136" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -30439,16 +30439,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -30658,13 +30658,13 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
         <v>5</v>
@@ -30880,17 +30880,17 @@
         <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -31096,20 +31096,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C140" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D140" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -31315,20 +31315,20 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -31534,20 +31534,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -32187,20 +32187,20 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B145" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C145" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D145" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -32418,20 +32418,20 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C146" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D146" t="n">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -32637,20 +32637,20 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B147" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C147" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D147" t="n">
         <v>-1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -32856,20 +32856,20 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B148" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -33075,16 +33075,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B149" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C149" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -33294,13 +33294,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B150" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D150" t="n">
         <v>-1</v>
@@ -33513,20 +33513,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C151" t="n">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -33732,20 +33732,20 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -33951,20 +33951,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -34604,16 +34604,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B156" t="n">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C156" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -34827,20 +34827,20 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C157" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D157" t="n">
-        <v>-25</v>
+        <v>-6</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -35046,16 +35046,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="B158" t="n">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C158" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>-11</v>
+        <v>-21</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -35265,20 +35265,20 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="B159" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D159" t="n">
-        <v>-16</v>
+        <v>-25</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -35487,17 +35487,17 @@
         <v>2</v>
       </c>
       <c r="B160" t="n">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C160" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="D160" t="n">
-        <v>-54</v>
+        <v>-2</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -35703,20 +35703,20 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="B161" t="n">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -35922,20 +35922,20 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="B162" t="n">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="C162" t="n">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="D162" t="n">
-        <v>170</v>
+        <v>-35</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -36141,20 +36141,20 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -36360,20 +36360,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -37013,13 +37013,13 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -37228,13 +37228,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D168" t="n">
         <v>-1</v>
@@ -37443,16 +37443,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
         <v>2</v>
       </c>
-      <c r="C169" t="n">
-        <v>-1</v>
-      </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -37658,16 +37658,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -39360,16 +39360,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B178" t="n">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D178" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -39586,17 +39586,17 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C179" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>-14</v>
+        <v>1</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -39802,16 +39802,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C180" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D180" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -40021,20 +40021,20 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="B181" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C181" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="D181" t="n">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -40240,20 +40240,20 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B182" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D182" t="n">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -40459,20 +40459,20 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
+        <v>9</v>
+      </c>
+      <c r="B183" t="n">
+        <v>47</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D183" t="n">
         <v>4</v>
       </c>
-      <c r="B183" t="n">
-        <v>91</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>-7</v>
-      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -40678,20 +40678,20 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B184" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D184" t="n">
-        <v>98</v>
+        <v>-10</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -40897,20 +40897,20 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -41116,20 +41116,20 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -41769,16 +41769,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B189" t="n">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C189" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -41992,16 +41992,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B190" t="n">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -42214,13 +42214,13 @@
         <v>2</v>
       </c>
       <c r="B191" t="n">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C191" t="n">
         <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -42433,17 +42433,17 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="C192" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -42649,20 +42649,20 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>-51</v>
+        <v>5</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -42868,20 +42868,20 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -43087,20 +43087,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="C195" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>175</v>
+        <v>-40</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -43306,16 +43306,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -43525,20 +43525,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -44181,13 +44181,13 @@
         <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C200" t="n">
         <v>-1</v>
       </c>
       <c r="D200" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -44398,10 +44398,10 @@
         <v>1</v>
       </c>
       <c r="B201" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C201" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>20</v>
@@ -44612,16 +44612,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D202" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -44829,20 +44829,20 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B203" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -45046,16 +45046,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C204" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" t="n">
         <v>-2</v>
-      </c>
-      <c r="D204" t="n">
-        <v>2</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -45263,20 +45263,20 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B205" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D205" t="n">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -45480,20 +45480,20 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="B206" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C206" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D206" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -45697,16 +45697,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -45914,20 +45914,20 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -46561,20 +46561,20 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B211" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -46792,20 +46792,20 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B212" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D212" t="n">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -47019,20 +47019,20 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B213" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -47238,20 +47238,20 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B214" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C214" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -47457,20 +47457,20 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B215" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C215" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>-27</v>
+        <v>8</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -47676,20 +47676,20 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B216" t="n">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -47895,20 +47895,20 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B217" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D217" t="n">
-        <v>83</v>
+        <v>-38</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -48117,13 +48117,13 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -48333,20 +48333,20 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -48989,13 +48989,13 @@
         <v>2</v>
       </c>
       <c r="B222" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -49212,7 +49212,7 @@
         <v>1</v>
       </c>
       <c r="B223" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -49435,13 +49435,13 @@
         <v>0</v>
       </c>
       <c r="B224" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C224" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -49655,16 +49655,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B225" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -49878,20 +49878,20 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B226" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C226" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D226" t="n">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -50101,16 +50101,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B227" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
         <v>1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>-9</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -50324,20 +50324,20 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B228" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C228" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>52</v>
+        <v>-11</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -50547,20 +50547,20 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -50770,20 +50770,20 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -51438,13 +51438,13 @@
         <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>0</v>
       </c>
       <c r="B234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -51876,10 +51876,10 @@
         <v>0</v>
       </c>
       <c r="B235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C235" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
         <v>1</v>
@@ -52092,13 +52092,13 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -52314,13 +52314,13 @@
         <v>0</v>
       </c>
       <c r="B237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -52530,16 +52530,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -52749,20 +52749,20 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B239" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C239" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D239" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -52968,13 +52968,13 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -53187,20 +53187,20 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -53840,20 +53840,20 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B244" t="n">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="C244" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>-17</v>
+        <v>38</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -54071,20 +54071,20 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B245" t="n">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="C245" t="n">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="D245" t="n">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -54298,16 +54298,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="B246" t="n">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="C246" t="n">
         <v>-3</v>
       </c>
       <c r="D246" t="n">
-        <v>-18</v>
+        <v>-59</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -54525,16 +54525,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="B247" t="n">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="C247" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="D247" t="n">
-        <v>-17</v>
+        <v>-31</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -54752,20 +54752,20 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B248" t="n">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="D248" t="n">
         <v>24</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -54979,20 +54979,20 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B249" t="n">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="C249" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D249" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -55206,16 +55206,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B250" t="n">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="C250" t="n">
         <v>17</v>
       </c>
       <c r="D250" t="n">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -55433,16 +55433,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -55660,20 +55660,20 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -56340,13 +56340,13 @@
         <v>1</v>
       </c>
       <c r="B255" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -56557,13 +56557,13 @@
         <v>0</v>
       </c>
       <c r="B256" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -56774,13 +56774,13 @@
         <v>0</v>
       </c>
       <c r="B257" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
         <v>-1</v>
-      </c>
-      <c r="D257" t="n">
-        <v>-2</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -56988,16 +56988,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B258" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -57205,20 +57205,20 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B259" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C259" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D259" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -57422,20 +57422,20 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B260" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C260" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>-18</v>
+        <v>-7</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -57639,20 +57639,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="B261" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C261" t="n">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="D261" t="n">
-        <v>48</v>
+        <v>-6</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -57856,20 +57856,20 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -58073,20 +58073,20 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -58739,13 +58739,13 @@
         <v>1</v>
       </c>
       <c r="B266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -58965,10 +58965,10 @@
         <v>2</v>
       </c>
       <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
         <v>1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>0</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -59178,13 +59178,13 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
@@ -59400,13 +59400,13 @@
         <v>0</v>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -59625,7 +59625,7 @@
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -59838,10 +59838,10 @@
         <v>0</v>
       </c>
       <c r="B271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
@@ -60054,16 +60054,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -60279,10 +60279,10 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -60492,16 +60492,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -61148,13 +61148,13 @@
         <v>0</v>
       </c>
       <c r="B277" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -61362,16 +61362,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B278" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D278" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -61582,7 +61582,7 @@
         <v>0</v>
       </c>
       <c r="B279" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -61799,13 +61799,13 @@
         <v>0</v>
       </c>
       <c r="B280" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -62016,17 +62016,17 @@
         <v>0</v>
       </c>
       <c r="B281" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -62230,16 +62230,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B282" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -62447,20 +62447,20 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B283" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C283" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D283" t="n">
-        <v>22</v>
+        <v>-8</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -62664,16 +62664,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -62881,20 +62881,20 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
